--- a/static/files/receipt_pattern.xlsx
+++ b/static/files/receipt_pattern.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16020" windowHeight="7560" tabRatio="600" firstSheet="3" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Шаблон ДШК" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Шаблон ПД4" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Шаблон ПД жкх" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="receipt" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Шаблон ДШК" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Шаблон ПД4" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Шаблон ПД жкх" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="receipt" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="BankName">#REF!</definedName>
@@ -3088,7 +3088,7 @@
       <c r="B26" s="56" t="n"/>
       <c r="C26" s="52" t="inlineStr">
         <is>
-          <t>банка, ознакомлен и согласен.                    По</t>
+          <t>банка, ознакомлен и согласен.                    Подпись плательщика                                        \</t>
         </is>
       </c>
     </row>
